--- a/SPRINT 1/2-Seguimiento/Entregas Sprint-1 plataforma UTP/Entrega 9 Acta de Reunion Semanal de SCRUM No.3/Plantilla Pila de Sprint semana3.xlsx
+++ b/SPRINT 1/2-Seguimiento/Entregas Sprint-1 plataforma UTP/Entrega 9 Acta de Reunion Semanal de SCRUM No.3/Plantilla Pila de Sprint semana3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="76">
   <si>
     <t>CATEGORÍA</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>semanal</t>
+  </si>
+  <si>
+    <t>Terminado</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -688,11 +691,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,15 +884,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,6 +934,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P54"/>
+  <dimension ref="B1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44:N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2202,7 @@
       <c r="C26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="22" t="s">
@@ -2091,7 +2242,7 @@
       <c r="C27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="30" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -2131,7 +2282,7 @@
       <c r="C28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="30" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="22" t="s">
@@ -2171,7 +2322,7 @@
       <c r="C29" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="30" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="22" t="s">
@@ -2337,14 +2488,14 @@
       <c r="L33" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="45" t="s">
+      <c r="M33" s="56" t="s">
         <v>9</v>
       </c>
       <c r="N33" s="33"/>
       <c r="O33" s="33"/>
       <c r="P33" s="46"/>
     </row>
-    <row r="34" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="42"/>
       <c r="C34" s="40"/>
       <c r="D34" s="34"/>
@@ -2356,20 +2507,20 @@
       <c r="J34" s="36"/>
       <c r="K34" s="40"/>
       <c r="L34" s="44"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="N34" s="30" t="s">
+      <c r="N34" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="O34" s="30" t="s">
+      <c r="O34" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="5" t="s">
         <v>32</v>
@@ -2402,7 +2553,7 @@
         <f t="shared" ref="L35:L53" si="2">K35-(SUM(M35:P35))</f>
         <v>8</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="58">
         <v>4</v>
       </c>
       <c r="N35" s="5">
@@ -2413,25 +2564,25 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J36" s="23" t="s">
@@ -2444,7 +2595,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="58">
         <v>4</v>
       </c>
       <c r="N36" s="5">
@@ -2473,29 +2624,29 @@
       <c r="H37" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="22">
         <v>16</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="62">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M37" s="9">
-        <v>4</v>
-      </c>
-      <c r="N37" s="5">
-        <v>4</v>
-      </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M37" s="59">
+        <v>4</v>
+      </c>
+      <c r="N37" s="22">
+        <v>4</v>
+      </c>
+      <c r="O37" s="22"/>
+      <c r="P37" s="25"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
       <c r="C38" s="22" t="s">
         <v>36</v>
@@ -2515,27 +2666,27 @@
       <c r="H38" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="22">
         <v>16</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="62">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M38" s="9">
-        <v>4</v>
-      </c>
-      <c r="N38" s="16">
-        <v>4</v>
-      </c>
-      <c r="O38" s="16"/>
-      <c r="P38" s="21"/>
+      <c r="M38" s="59">
+        <v>4</v>
+      </c>
+      <c r="N38" s="22">
+        <v>4</v>
+      </c>
+      <c r="O38" s="22"/>
+      <c r="P38" s="25"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="29"/>
@@ -2557,20 +2708,20 @@
       <c r="H39" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="22">
         <v>16</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="62">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="59">
         <v>4</v>
       </c>
       <c r="N39" s="22">
@@ -2599,7 +2750,7 @@
       <c r="H40" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J40" s="23" t="s">
@@ -2612,7 +2763,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="58">
         <v>4</v>
       </c>
       <c r="N40" s="22">
@@ -2654,7 +2805,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="58">
         <v>4</v>
       </c>
       <c r="N41" s="22">
@@ -2696,7 +2847,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="58">
         <v>4</v>
       </c>
       <c r="N42" s="22">
@@ -2738,7 +2889,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="58">
         <v>4</v>
       </c>
       <c r="N43" s="22">
@@ -2748,320 +2899,322 @@
       <c r="P43" s="25"/>
     </row>
     <row r="44" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="47"/>
+      <c r="C44" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="48">
         <v>42828</v>
       </c>
-      <c r="J44" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" s="22">
-        <v>4</v>
-      </c>
-      <c r="L44" s="8">
+      <c r="J44" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44" s="30">
+        <v>4</v>
+      </c>
+      <c r="L44" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M44" s="24"/>
-      <c r="N44" s="22">
-        <v>4</v>
-      </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="25"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="30">
+        <v>4</v>
+      </c>
+      <c r="O44" s="30"/>
+      <c r="P44" s="51"/>
     </row>
     <row r="45" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="47"/>
+      <c r="C45" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="48">
         <v>42828</v>
       </c>
-      <c r="J45" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" s="22">
-        <v>4</v>
-      </c>
-      <c r="L45" s="8">
+      <c r="J45" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K45" s="30">
+        <v>4</v>
+      </c>
+      <c r="L45" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="22">
-        <v>4</v>
-      </c>
-      <c r="O45" s="22"/>
-      <c r="P45" s="25"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="30">
+        <v>4</v>
+      </c>
+      <c r="O45" s="30"/>
+      <c r="P45" s="51"/>
     </row>
     <row r="46" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="22" t="s">
+      <c r="B46" s="47"/>
+      <c r="C46" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="48">
         <v>42828</v>
       </c>
-      <c r="J46" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K46" s="22">
-        <v>4</v>
-      </c>
-      <c r="L46" s="8">
+      <c r="J46" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" s="30">
+        <v>4</v>
+      </c>
+      <c r="L46" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="22">
-        <v>4</v>
-      </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="25"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="30">
+        <v>4</v>
+      </c>
+      <c r="O46" s="30"/>
+      <c r="P46" s="51"/>
     </row>
     <row r="47" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="47"/>
+      <c r="C47" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="22" t="s">
+      <c r="D47" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I47" s="11">
-        <v>42828</v>
-      </c>
-      <c r="J47" s="23" t="s">
+      <c r="I47" s="52">
+        <v>42836</v>
+      </c>
+      <c r="J47" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" s="30">
+        <v>4</v>
+      </c>
+      <c r="L47" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="60"/>
+      <c r="N47" s="30">
+        <v>4</v>
+      </c>
+      <c r="O47" s="30"/>
+      <c r="P47" s="51"/>
+    </row>
+    <row r="48" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B48" s="47"/>
+      <c r="C48" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="52">
+        <v>42836</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="30">
+        <v>2</v>
+      </c>
+      <c r="L48" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="60"/>
+      <c r="N48" s="30">
+        <v>2</v>
+      </c>
+      <c r="O48" s="30"/>
+      <c r="P48" s="51"/>
+    </row>
+    <row r="49" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="47"/>
+      <c r="C49" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="52">
+        <v>42836</v>
+      </c>
+      <c r="J49" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" s="30">
+        <v>2</v>
+      </c>
+      <c r="L49" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="60"/>
+      <c r="N49" s="30">
+        <v>2</v>
+      </c>
+      <c r="O49" s="30"/>
+      <c r="P49" s="51"/>
+    </row>
+    <row r="50" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B50" s="47"/>
+      <c r="C50" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="52">
+        <v>42836</v>
+      </c>
+      <c r="J50" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" s="30">
+        <v>2</v>
+      </c>
+      <c r="L50" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="60"/>
+      <c r="N50" s="30">
+        <v>2</v>
+      </c>
+      <c r="O50" s="30"/>
+      <c r="P50" s="51"/>
+    </row>
+    <row r="51" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B51" s="47"/>
+      <c r="C51" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="52">
+        <v>42843</v>
+      </c>
+      <c r="J51" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="K47" s="22">
-        <v>4</v>
-      </c>
-      <c r="L47" s="8">
+      <c r="K51" s="30">
+        <v>2</v>
+      </c>
+      <c r="L51" s="50">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="22">
-        <v>2</v>
-      </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="25"/>
-    </row>
-    <row r="48" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I48" s="11">
-        <v>42828</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="22">
-        <v>2</v>
-      </c>
-      <c r="L48" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="22">
-        <v>2</v>
-      </c>
-      <c r="O48" s="22"/>
-      <c r="P48" s="25"/>
-    </row>
-    <row r="49" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I49" s="11">
-        <v>42828</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="22">
-        <v>2</v>
-      </c>
-      <c r="L49" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="22">
-        <v>2</v>
-      </c>
-      <c r="O49" s="22"/>
-      <c r="P49" s="25"/>
-    </row>
-    <row r="50" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I50" s="11">
-        <v>42828</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="22">
-        <v>2</v>
-      </c>
-      <c r="L50" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="25"/>
-    </row>
-    <row r="51" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I51" s="11">
-        <v>42828</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K51" s="22">
-        <v>2</v>
-      </c>
-      <c r="L51" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="25"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="51"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="26"/>
@@ -3096,7 +3249,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="59">
         <v>4</v>
       </c>
       <c r="N52" s="22"/>
@@ -3105,62 +3258,45 @@
     </row>
     <row r="53" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="15"/>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="54">
         <v>42828</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="J53" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="22">
-        <v>4</v>
-      </c>
-      <c r="L53" s="8">
+      <c r="K53" s="16">
+        <v>4</v>
+      </c>
+      <c r="L53" s="55">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M53" s="24">
+      <c r="M53" s="61">
         <v>1</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N53" s="16">
         <v>1</v>
       </c>
-      <c r="O53" s="22"/>
-      <c r="P53" s="25"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="36">
